--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F24358-A520-4188-917E-43C8DA58082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4314D7BF-C374-4070-93B1-D3BE5E28D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4314D7BF-C374-4070-93B1-D3BE5E28D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36660FBF-4A3F-4BD3-8FD4-73FEBF29D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" tabRatio="796" activeTab="13" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="161">
   <si>
     <t>node</t>
   </si>
@@ -517,6 +517,30 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>b1,dh2</t>
+  </si>
+  <si>
+    <t>b1,s1</t>
+  </si>
+  <si>
+    <t>b1,s2</t>
+  </si>
+  <si>
+    <t>b1,s3</t>
+  </si>
+  <si>
+    <t>b2,dh2</t>
+  </si>
+  <si>
+    <t>b2,s1</t>
+  </si>
+  <si>
+    <t>b2,s2</t>
+  </si>
+  <si>
+    <t>b2,s3</t>
   </si>
 </sst>
 </file>
@@ -900,171 +924,171 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -1080,12 +1104,12 @@
       <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>132</v>
       </c>
@@ -1110,9 +1134,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1120,7 +1144,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1128,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1149,14 +1173,14 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +1198,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1196,7 +1220,7 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1208,15 +1232,15 @@
         <v>0.4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">1*C3</f>
+        <f t="shared" ref="D3:D6" si="0">1*C3</f>
         <v>0.4</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="1">1*C3</f>
+        <f t="shared" ref="E3:E6" si="1">1*C3</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1236,7 +1260,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1256,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1276,115 +1300,115 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1405,14 +1429,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1463,7 +1487,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1479,19 +1503,19 @@
         <v>-5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="0">1*C3</f>
+        <f t="shared" ref="E3:E6" si="0">1*C3</f>
         <v>-5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F25" si="1">1*B3</f>
+        <f t="shared" ref="F3:F6" si="1">1*B3</f>
         <v>-5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G25" si="2">1*C3</f>
+        <f t="shared" ref="G3:G6" si="2">1*C3</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1519,7 +1543,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1531,7 +1555,7 @@
         <v>-3</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D3:D25" si="3">1*B5</f>
+        <f t="shared" ref="D5:D6" si="3">1*B5</f>
         <v>-2</v>
       </c>
       <c r="E5">
@@ -1547,7 +1571,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1575,7 +1599,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
@@ -1583,7 +1607,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
@@ -1591,7 +1615,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -1599,7 +1623,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -1607,7 +1631,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -1615,7 +1639,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -1623,7 +1647,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -1631,7 +1655,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -1639,7 +1663,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -1647,7 +1671,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1655,7 +1679,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -1663,7 +1687,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -1671,7 +1695,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -1679,7 +1703,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -1687,7 +1711,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -1695,7 +1719,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -1703,7 +1727,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -1711,7 +1735,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -1719,7 +1743,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1736,88 +1760,135 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BD40C-3F1E-4DCA-B153-EDE213641CC0}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7">
+        <v>44671.041666666664</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>44671.124999826388</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>44671.08333321759</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>44671.166666435187</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
+      <c r="B4" s="7">
+        <v>44671.124999826388</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1836,12 +1907,12 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1849,7 +1920,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1858,7 +1929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1867,7 +1938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1876,7 +1947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1885,7 +1956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1894,115 +1965,115 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2021,17 +2092,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2066,7 +2137,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2101,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2136,7 +2207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -2171,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -2219,13 +2290,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>128</v>
       </c>
@@ -2239,7 +2310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -2253,7 +2324,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -2267,7 +2338,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -2291,17 +2362,17 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2342,7 +2413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2392,7 +2463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2442,7 +2513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2492,7 +2563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2534,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2576,115 +2647,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2704,14 +2775,14 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2734,7 +2805,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2764,7 +2835,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2794,7 +2865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2824,7 +2895,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2854,7 +2925,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2884,115 +2955,115 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3008,17 +3079,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82624B08-6930-4D2B-BCBB-C78CE759E704}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -3026,7 +3097,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3034,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -3042,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -3050,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -3058,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -3066,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -3074,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -3096,12 +3167,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -3109,7 +3180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -3117,7 +3188,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -3138,9 +3209,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -3148,7 +3219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -3156,7 +3227,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3164,7 +3235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3185,162 +3256,162 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3359,12 +3430,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3378,7 +3449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3393,7 +3464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3408,7 +3479,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3423,7 +3494,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3438,7 +3509,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3453,115 +3524,115 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3581,14 +3652,14 @@
       <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -3602,7 +3673,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -3616,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3635,15 +3706,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3675,7 +3746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3708,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3741,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3774,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3807,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3840,115 +3911,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3967,12 +4038,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3986,7 +4057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4001,7 +4072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4016,7 +4087,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4031,7 +4102,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4046,7 +4117,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4061,115 +4132,115 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4188,20 +4259,20 @@
       <selection activeCell="L12" activeCellId="1" sqref="M1 L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4251,7 +4322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4301,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4351,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4401,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4451,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4501,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4515,7 +4586,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M8" s="6"/>
     </row>
   </sheetData>
@@ -4531,22 +4602,22 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -4599,7 +4670,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4652,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4705,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4758,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4811,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4864,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4917,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -4948,9 +5019,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -4961,7 +5032,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4972,7 +5043,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4983,7 +5054,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +5065,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5018,9 +5089,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5077,20 +5148,20 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -5122,7 +5193,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -5154,7 +5225,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -5186,7 +5257,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -5218,7 +5289,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -5250,7 +5321,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -5282,7 +5353,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -5314,7 +5385,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -5346,7 +5417,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -5378,7 +5449,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -5410,7 +5481,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -5442,7 +5513,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -5488,155 +5559,155 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5655,14 +5726,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>132</v>
       </c>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36660FBF-4A3F-4BD3-8FD4-73FEBF29D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA8B8E4-7638-458D-AF0F-CFA5F5389182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" tabRatio="796" activeTab="13" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="12" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -927,168 +927,168 @@
       <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -1104,12 +1104,12 @@
       <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>132</v>
       </c>
@@ -1134,9 +1134,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1173,14 +1173,14 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1220,7 +1220,7 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1240,7 +1240,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1260,7 +1260,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1300,115 +1300,115 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1425,18 +1425,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1487,7 +1487,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1515,7 +1515,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1543,7 +1543,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1571,7 +1571,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1599,7 +1599,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
@@ -1607,7 +1607,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
@@ -1615,7 +1615,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -1623,7 +1623,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -1631,7 +1631,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -1639,7 +1639,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -1647,7 +1647,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -1655,7 +1655,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -1663,7 +1663,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -1671,7 +1671,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1679,7 +1679,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -1687,7 +1687,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -1695,7 +1695,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -1703,7 +1703,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -1711,7 +1711,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -1719,7 +1719,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -1727,7 +1727,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -1735,7 +1735,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -1743,7 +1743,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1762,19 +1762,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BD40C-3F1E-4DCA-B153-EDE213641CC0}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1878,17 +1878,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1907,12 +1907,12 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1938,7 +1938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1947,7 +1947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1956,7 +1956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1965,115 +1965,115 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2092,17 +2092,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -2290,13 +2290,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>128</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -2365,14 +2365,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2463,7 +2463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2513,7 +2513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2563,7 +2563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2647,115 +2647,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2775,14 +2775,14 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2835,7 +2835,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2865,7 +2865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2895,7 +2895,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2925,7 +2925,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2955,115 +2955,115 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3083,13 +3083,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -3167,12 +3167,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -3209,9 +3209,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3256,162 +3256,162 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3430,12 +3430,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3464,7 +3464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3479,7 +3479,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3494,7 +3494,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3509,7 +3509,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3524,115 +3524,115 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3652,14 +3652,14 @@
       <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3706,15 +3706,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3911,115 +3911,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4038,12 +4038,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4072,7 +4072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4087,7 +4087,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4102,7 +4102,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4117,7 +4117,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4132,115 +4132,115 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4259,20 +4259,20 @@
       <selection activeCell="L12" activeCellId="1" sqref="M1 L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4586,7 +4586,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M8" s="6"/>
     </row>
   </sheetData>
@@ -4602,22 +4602,22 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5019,9 +5019,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5089,9 +5089,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5148,20 +5148,20 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -5559,155 +5559,155 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5726,14 +5726,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>132</v>
       </c>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA8B8E4-7638-458D-AF0F-CFA5F5389182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7EC70D-F3B0-4E29-ADCA-3E5E3AF8B48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="12" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="163">
   <si>
     <t>node</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>b2,s3</t>
+  </si>
+  <si>
+    <t>node_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>ramp_dummy_variable_cost</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3077,10 +3083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82624B08-6930-4D2B-BCBB-C78CE759E704}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3139,17 +3145,33 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>148</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4035,7 +4057,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4256,7 +4278,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" activeCellId="1" sqref="M1 L12"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4599,7 +4621,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4717,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="6">
         <v>0</v>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7EC70D-F3B0-4E29-ADCA-3E5E3AF8B48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB6D9C-8C8A-448C-90E9-1CD1491783A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="162">
   <si>
     <t>node</t>
   </si>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>penalty</t>
-  </si>
-  <si>
-    <t>reserve_product</t>
   </si>
   <si>
     <t>processgroup</t>
@@ -599,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -610,9 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,13 +1111,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1785,28 +1779,28 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>159</v>
-      </c>
-      <c r="I1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2095,7 +2089,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2119,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -2154,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>44</v>
@@ -2186,10 +2180,10 @@
         <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>45</v>
@@ -2221,10 +2215,10 @@
         <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>79</v>
@@ -2256,10 +2250,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>80</v>
@@ -2290,35 +2284,54 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
     <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>128</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>0.2</v>
@@ -2329,10 +2342,29 @@
       <c r="D2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2343,10 +2375,29 @@
       <c r="D3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>0.3</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -2357,8 +2408,210 @@
       <c r="D4">
         <v>0.2</v>
       </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>0.3</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>0.3</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>0.3</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2368,7 +2621,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3085,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82624B08-6930-4D2B-BCBB-C78CE759E704}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -3105,7 +3358,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3113,7 +3366,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3121,7 +3374,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3129,7 +3382,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3137,7 +3390,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3145,7 +3398,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -3153,7 +3406,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -3161,7 +3414,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3169,10 +3422,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4317,7 +4570,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -4332,13 +4585,13 @@
         <v>107</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>111</v>
@@ -4686,7 +4939,7 @@
         <v>97</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>101</v>
@@ -5062,7 +5315,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5073,7 +5326,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5084,7 +5337,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5095,7 +5348,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5209,10 +5462,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5757,19 +6010,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB6D9C-8C8A-448C-90E9-1CD1491783A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E77C83-3E2E-4805-95C3-826492C60EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="10" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
     <sheet name="market_prices" sheetId="8" r:id="rId18"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="risk" sheetId="17" r:id="rId20"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
-    <sheet name="constraints" sheetId="14" r:id="rId24"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId25"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId26"/>
+    <sheet name="reserve_activation_price" sheetId="27" r:id="rId20"/>
+    <sheet name="risk" sheetId="17" r:id="rId21"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
+    <sheet name="constraints" sheetId="14" r:id="rId25"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
   <si>
     <t>node</t>
   </si>
@@ -927,168 +928,168 @@
       <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -1104,12 +1105,12 @@
       <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -1134,9 +1135,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1173,14 +1174,14 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1198,7 +1199,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1220,7 +1221,7 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1240,7 +1241,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1260,7 +1261,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1280,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1300,115 +1301,115 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1429,14 +1430,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1487,7 +1488,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1515,7 +1516,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1543,7 +1544,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1571,7 +1572,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1599,7 +1600,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
@@ -1607,7 +1608,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
@@ -1615,7 +1616,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -1623,7 +1624,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -1631,7 +1632,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -1639,7 +1640,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -1647,7 +1648,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -1655,7 +1656,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -1663,7 +1664,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -1671,7 +1672,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1679,7 +1680,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -1687,7 +1688,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -1695,7 +1696,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -1703,7 +1704,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -1711,7 +1712,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -1719,7 +1720,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -1727,7 +1728,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -1735,7 +1736,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -1743,7 +1744,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1766,15 +1767,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1878,17 +1879,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1907,12 +1908,12 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1929,7 +1930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1938,7 +1939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1947,7 +1948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1956,7 +1957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1965,115 +1966,115 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2092,17 +2093,17 @@
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -2286,17 +2287,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2361,7 +2362,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2394,7 +2395,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2427,7 +2428,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2460,7 +2461,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2493,13 +2494,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
@@ -2508,103 +2509,103 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2624,14 +2625,14 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2722,7 +2723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2772,7 +2773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2822,7 +2823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2864,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2906,115 +2907,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3031,17 +3032,17 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3094,7 +3095,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3124,7 +3125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3154,7 +3155,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3184,7 +3185,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3214,115 +3215,115 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3342,13 +3343,13 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -3435,6 +3436,378 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5B427A-5538-47DE-980F-BB3AB58D71B6}">
+  <dimension ref="A1:BA25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>0.3</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>0.3</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>0.3</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>0.3</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3442,12 +3815,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -3455,7 +3828,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -3463,7 +3836,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -3476,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3484,9 +3857,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -3494,7 +3867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -3502,7 +3875,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3510,7 +3883,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3523,7 +3896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -3531,162 +3904,162 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3697,7 +4070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -3705,12 +4078,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3724,7 +4097,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3739,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3754,7 +4127,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3769,7 +4142,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3784,7 +4157,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3799,115 +4172,115 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3919,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -3927,14 +4300,14 @@
       <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -3948,7 +4321,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -3962,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3973,7 +4346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -3981,15 +4354,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4021,7 +4394,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4054,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4087,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4120,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4153,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4186,115 +4559,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4305,7 +4678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -4313,12 +4686,12 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4332,7 +4705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4347,7 +4720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4362,7 +4735,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4377,7 +4750,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4392,7 +4765,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4407,115 +4780,115 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4534,20 +4907,20 @@
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4597,7 +4970,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4647,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4697,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4747,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4797,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4847,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4861,7 +5234,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M8" s="6"/>
     </row>
   </sheetData>
@@ -4877,22 +5250,22 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -4945,7 +5318,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4998,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5051,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5104,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5157,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -5210,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -5263,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5294,9 +5667,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -5307,7 +5680,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5318,7 +5691,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5329,7 +5702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5340,7 +5713,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5364,9 +5737,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5423,20 +5796,20 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -5468,7 +5841,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -5500,7 +5873,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -5532,7 +5905,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -5564,7 +5937,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -5596,7 +5969,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -5628,7 +6001,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -5660,7 +6033,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -5692,7 +6065,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -5724,7 +6097,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -5756,7 +6129,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -5788,7 +6161,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -5834,155 +6207,155 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6001,14 +6374,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E77C83-3E2E-4805-95C3-826492C60EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E403EB9-0AE5-44EC-BEB4-ACF75C50A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="10" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="17" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -30,16 +30,17 @@
     <sheet name="price" sheetId="4" r:id="rId15"/>
     <sheet name="markets" sheetId="5" r:id="rId16"/>
     <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="reserve_activation_price" sheetId="27" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId27"/>
+    <sheet name="bid_slots" sheetId="28" r:id="rId18"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId19"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId20"/>
+    <sheet name="reserve_activation_price" sheetId="27" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
   <si>
     <t>node</t>
   </si>
@@ -2618,11 +2619,178 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B77AB47-4DF2-4CE7-989A-6ED48E9B6093}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,314 +3130,6 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <f>1.1*market_prices!B2</f>
-        <v>52.800000000000004</v>
-      </c>
-      <c r="C2">
-        <f>1.1*market_prices!F2</f>
-        <v>52.800000000000004</v>
-      </c>
-      <c r="D2">
-        <f>1.1*market_prices!J2</f>
-        <v>52.800000000000004</v>
-      </c>
-      <c r="E2">
-        <f>0.9*market_prices!B2</f>
-        <v>43.2</v>
-      </c>
-      <c r="F2">
-        <f>0.9*market_prices!F2</f>
-        <v>43.2</v>
-      </c>
-      <c r="G2">
-        <f>0.9*market_prices!J2</f>
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <f>1.1*market_prices!B3</f>
-        <v>66</v>
-      </c>
-      <c r="C3">
-        <f>1.1*market_prices!F3</f>
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <f>1.1*market_prices!J3</f>
-        <v>66</v>
-      </c>
-      <c r="E3">
-        <f>0.9*market_prices!B3</f>
-        <v>54</v>
-      </c>
-      <c r="F3">
-        <f>0.9*market_prices!F3</f>
-        <v>54</v>
-      </c>
-      <c r="G3">
-        <f>0.9*market_prices!J3</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <f>1.1*market_prices!B4</f>
-        <v>63.800000000000004</v>
-      </c>
-      <c r="C4">
-        <f>1.1*market_prices!F4</f>
-        <v>63.800000000000004</v>
-      </c>
-      <c r="D4">
-        <f>1.1*market_prices!J4</f>
-        <v>63.800000000000004</v>
-      </c>
-      <c r="E4">
-        <f>0.9*market_prices!B4</f>
-        <v>52.2</v>
-      </c>
-      <c r="F4">
-        <f>0.9*market_prices!F4</f>
-        <v>52.2</v>
-      </c>
-      <c r="G4">
-        <f>0.9*market_prices!J4</f>
-        <v>52.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <f>1.1*market_prices!B5</f>
-        <v>56.1</v>
-      </c>
-      <c r="C5">
-        <f>1.1*market_prices!F5</f>
-        <v>84.15</v>
-      </c>
-      <c r="D5">
-        <f>1.1*market_prices!J5</f>
-        <v>28.05</v>
-      </c>
-      <c r="E5">
-        <f>0.9*market_prices!B5</f>
-        <v>45.9</v>
-      </c>
-      <c r="F5">
-        <f>0.9*market_prices!F5</f>
-        <v>68.850000000000009</v>
-      </c>
-      <c r="G5">
-        <f>0.9*market_prices!J5</f>
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <f>1.1*market_prices!B6</f>
-        <v>40.700000000000003</v>
-      </c>
-      <c r="C6">
-        <f>1.1*market_prices!F6</f>
-        <v>61.050000000000004</v>
-      </c>
-      <c r="D6">
-        <f>1.1*market_prices!J6</f>
-        <v>20.350000000000001</v>
-      </c>
-      <c r="E6">
-        <f>0.9*market_prices!B6</f>
-        <v>33.300000000000004</v>
-      </c>
-      <c r="F6">
-        <f>0.9*market_prices!F6</f>
-        <v>49.95</v>
-      </c>
-      <c r="G6">
-        <f>0.9*market_prices!J6</f>
-        <v>16.650000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -3436,10 +3296,318 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <f>1.1*market_prices!B2</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="C2">
+        <f>1.1*market_prices!F2</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="D2">
+        <f>1.1*market_prices!J2</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="E2">
+        <f>0.9*market_prices!B2</f>
+        <v>43.2</v>
+      </c>
+      <c r="F2">
+        <f>0.9*market_prices!F2</f>
+        <v>43.2</v>
+      </c>
+      <c r="G2">
+        <f>0.9*market_prices!J2</f>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <f>1.1*market_prices!B3</f>
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <f>1.1*market_prices!F3</f>
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <f>1.1*market_prices!J3</f>
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <f>0.9*market_prices!B3</f>
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <f>0.9*market_prices!F3</f>
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <f>0.9*market_prices!J3</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <f>1.1*market_prices!B4</f>
+        <v>63.800000000000004</v>
+      </c>
+      <c r="C4">
+        <f>1.1*market_prices!F4</f>
+        <v>63.800000000000004</v>
+      </c>
+      <c r="D4">
+        <f>1.1*market_prices!J4</f>
+        <v>63.800000000000004</v>
+      </c>
+      <c r="E4">
+        <f>0.9*market_prices!B4</f>
+        <v>52.2</v>
+      </c>
+      <c r="F4">
+        <f>0.9*market_prices!F4</f>
+        <v>52.2</v>
+      </c>
+      <c r="G4">
+        <f>0.9*market_prices!J4</f>
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <f>1.1*market_prices!B5</f>
+        <v>56.1</v>
+      </c>
+      <c r="C5">
+        <f>1.1*market_prices!F5</f>
+        <v>84.15</v>
+      </c>
+      <c r="D5">
+        <f>1.1*market_prices!J5</f>
+        <v>28.05</v>
+      </c>
+      <c r="E5">
+        <f>0.9*market_prices!B5</f>
+        <v>45.9</v>
+      </c>
+      <c r="F5">
+        <f>0.9*market_prices!F5</f>
+        <v>68.850000000000009</v>
+      </c>
+      <c r="G5">
+        <f>0.9*market_prices!J5</f>
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <f>1.1*market_prices!B6</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C6">
+        <f>1.1*market_prices!F6</f>
+        <v>61.050000000000004</v>
+      </c>
+      <c r="D6">
+        <f>1.1*market_prices!J6</f>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="E6">
+        <f>0.9*market_prices!B6</f>
+        <v>33.300000000000004</v>
+      </c>
+      <c r="F6">
+        <f>0.9*market_prices!F6</f>
+        <v>49.95</v>
+      </c>
+      <c r="G6">
+        <f>0.9*market_prices!J6</f>
+        <v>16.650000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5B427A-5538-47DE-980F-BB3AB58D71B6}">
   <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3807,7 +3975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3849,7 +4017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3896,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -4070,7 +4238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -4292,7 +4460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -4346,7 +4514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -4678,7 +4846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E403EB9-0AE5-44EC-BEB4-ACF75C50A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636F7CB-E173-4F94-B0C1-EA8BC32B69FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="17" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
   <si>
     <t>node</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>node2</t>
-  </si>
-  <si>
-    <t>diff_coeff</t>
   </si>
   <si>
     <t>state_min</t>
@@ -1100,26 +1097,166 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>31</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1781,28 +1918,28 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>158</v>
-      </c>
-      <c r="I1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2622,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B77AB47-4DF2-4CE7-989A-6ED48E9B6093}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,7 +3356,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3227,7 +3364,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3235,7 +3372,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3243,7 +3380,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3251,7 +3388,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3259,7 +3396,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -3267,7 +3404,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -3275,7 +3412,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3283,10 +3420,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -5126,13 +5263,13 @@
         <v>107</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>111</v>
@@ -5480,7 +5617,7 @@
         <v>97</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>101</v>
@@ -6003,10 +6140,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6557,13 +6694,13 @@
         <v>132</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636F7CB-E173-4F94-B0C1-EA8BC32B69FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932A10C-10A2-4EA0-83DA-BE909560F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="2" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
   <si>
     <t>node</t>
   </si>
@@ -152,9 +152,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>reserve</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>delay_t</t>
   </si>
   <si>
@@ -543,6 +534,18 @@
   </si>
   <si>
     <t>ramp_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1099,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1113,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1270,22 +1273,22 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1321,19 +1324,19 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F1"/>
     </row>
@@ -1577,25 +1580,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,31 +1918,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>155</v>
-      </c>
-      <c r="G1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2053,10 +2056,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2231,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,37 +2246,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2281,19 +2284,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2313,22 +2316,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2348,22 +2351,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2383,22 +2386,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2437,34 +2440,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2939,43 +2942,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3348,15 +3351,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3364,7 +3367,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3380,7 +3383,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3388,7 +3391,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3396,7 +3399,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -3412,7 +3415,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3420,10 +3423,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3449,25 +3452,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,34 +3758,34 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
       </c>
       <c r="K1"/>
       <c r="L1"/>
@@ -4127,15 +4130,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -4166,15 +4169,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -4182,7 +4185,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -4190,7 +4193,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -4216,7 +4219,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4390,16 +4393,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4614,24 +4617,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4669,34 +4672,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4998,16 +5001,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5209,7 +5212,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -5248,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -5257,22 +5260,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -5477,7 +5480,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -5578,13 +5581,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -5599,28 +5602,28 @@
         <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5837,7 +5840,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -5890,7 +5893,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -5968,21 +5971,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5993,7 +5996,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6004,7 +6007,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,7 +6018,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6026,7 +6029,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6098,7 +6101,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6125,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -6140,10 +6143,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6404,7 +6407,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -6436,7 +6439,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>27</v>
@@ -6468,13 +6471,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -6519,7 +6522,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -6688,19 +6691,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/input_data_common_start.xlsx
+++ b/input_data/input_data_common_start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932A10C-10A2-4EA0-83DA-BE909560F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87C639A-A73D-4D96-B1E0-129ECCA86FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="2" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="163">
   <si>
     <t>node</t>
   </si>
@@ -488,9 +488,6 @@
     <t>use_market_bids</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -546,6 +543,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -1921,28 +1924,28 @@
         <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>152</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>154</v>
-      </c>
-      <c r="I1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2249,7 +2252,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -3337,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82624B08-6930-4D2B-BCBB-C78CE759E704}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,7 +3402,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -3407,7 +3410,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -3415,7 +3418,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3423,10 +3426,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
+        <v>162</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5266,13 +5277,13 @@
         <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>132</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>109</v>
@@ -5620,7 +5631,7 @@
         <v>95</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>99</v>
@@ -5971,7 +5982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5979,7 +5990,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>118</v>
@@ -6134,7 +6145,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -6146,7 +6157,7 @@
         <v>136</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
